--- a/data/Course Booklet 2019/LA_UG_Curriculum.xlsx
+++ b/data/Course Booklet 2019/LA_UG_Curriculum.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
-    <t xml:space="preserve">Semester</t>
+    <t xml:space="preserve">Basket</t>
   </si>
   <si>
     <t xml:space="preserve">Course Code</t>
@@ -43,15 +43,15 @@
     <t xml:space="preserve">Global Remarks</t>
   </si>
   <si>
+    <t xml:space="preserve">3rd Year</t>
+  </si>
+  <si>
     <t xml:space="preserve">LA 3010</t>
   </si>
   <si>
     <t xml:space="preserve">Financial Institutions and Markets</t>
   </si>
   <si>
-    <t xml:space="preserve">3rd Year</t>
-  </si>
-  <si>
     <t xml:space="preserve">B.Tech Minor in Economics Curriculum</t>
   </si>
   <si>
@@ -61,30 +61,30 @@
     <t xml:space="preserve">Macroeconomics</t>
   </si>
   <si>
+    <t xml:space="preserve">4th Year</t>
+  </si>
+  <si>
     <t xml:space="preserve">LA 4060</t>
   </si>
   <si>
     <t xml:space="preserve">Indian Economic Development</t>
   </si>
   <si>
-    <t xml:space="preserve">4th Year</t>
-  </si>
-  <si>
     <t xml:space="preserve">LA 5030</t>
   </si>
   <si>
     <t xml:space="preserve">Basic Econometrics and Forecasting</t>
   </si>
   <si>
+    <t xml:space="preserve">SEMESTER I </t>
+  </si>
+  <si>
     <t xml:space="preserve">LA 1470</t>
   </si>
   <si>
     <t xml:space="preserve">Philosophical Perspectives on Human-Technology Interactions </t>
   </si>
   <si>
-    <t xml:space="preserve">SEMESTER I </t>
-  </si>
-  <si>
     <t xml:space="preserve">B.Tech Minor in AI and Humanity Curriculum</t>
   </si>
   <si>
@@ -100,40 +100,40 @@
     <t xml:space="preserve">Socio-Cultural Perspectives on Artificial Intelligence </t>
   </si>
   <si>
+    <t xml:space="preserve">SEMESTER II</t>
+  </si>
+  <si>
     <t xml:space="preserve">LA 1500</t>
   </si>
   <si>
     <t xml:space="preserve">What is AI and Humanity?  </t>
   </si>
   <si>
-    <t xml:space="preserve">SEMESTER II</t>
-  </si>
-  <si>
     <t xml:space="preserve">LA 1540</t>
   </si>
   <si>
     <t xml:space="preserve">Artificial Intelligence and Behavioral and Mental Health  </t>
   </si>
   <si>
+    <t xml:space="preserve">SEMESTER III</t>
+  </si>
+  <si>
     <t xml:space="preserve">LA xxxx</t>
   </si>
   <si>
     <t xml:space="preserve">AI and Social Justice  </t>
   </si>
   <si>
-    <t xml:space="preserve">SEMESTER III</t>
-  </si>
-  <si>
     <t xml:space="preserve">The AI Economy  </t>
   </si>
   <si>
     <t xml:space="preserve">Governance Perspectives on AI  </t>
   </si>
   <si>
+    <t xml:space="preserve">SEMESTER IV</t>
+  </si>
+  <si>
     <t xml:space="preserve">Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEMESTER IV</t>
   </si>
 </sst>
 </file>
@@ -235,12 +235,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -253,7 +253,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6:G14"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -287,11 +287,14 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>3</v>
@@ -299,14 +302,14 @@
       <c r="E2" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="B3" s="0" t="s">
         <v>11</v>
       </c>
@@ -319,16 +322,16 @@
       <c r="E3" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>3</v>
@@ -336,11 +339,11 @@
       <c r="E4" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="B5" s="0" t="s">
         <v>16</v>
       </c>
@@ -353,28 +356,28 @@
       <c r="E5" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="B6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="G6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="B7" s="0" t="s">
         <v>22</v>
       </c>
@@ -384,11 +387,11 @@
       <c r="D7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="B8" s="0" t="s">
         <v>24</v>
       </c>
@@ -398,25 +401,25 @@
       <c r="D8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="B9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="B10" s="0" t="s">
         <v>29</v>
       </c>
@@ -426,27 +429,27 @@
       <c r="D10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>31</v>
+      </c>
       <c r="B11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="0" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>31</v>
+      </c>
       <c r="B12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>34</v>
@@ -454,13 +457,13 @@
       <c r="D12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>31</v>
+      </c>
       <c r="B13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>35</v>
@@ -468,22 +471,19 @@
       <c r="D13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>36</v>
+      </c>
       <c r="B14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>3</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
